--- a/helloworldmerge.xlsx
+++ b/helloworldmerge.xlsx
@@ -151,25 +151,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>150809051050</t>
+        </is>
+      </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+          <t>张紫琛</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>曹鹏飞</t>
+          <t>cpf</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -179,7 +191,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="E3" s="3"/>
@@ -187,12 +199,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>11214040102</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>曹能豆豆</t>
+          <t>曹鹏飞</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -205,22 +217,45 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>130283199308082316</t>
-        </is>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+          <t>11214040102</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>曹能豆豆</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>130283199308082316</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
